--- a/pcb/sensactHsNano2/PinHints.xlsx
+++ b/pcb/sensactHsNano2/PinHints.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\sensact\pcb\sensactHsNano\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\sensact\pcb\sensactHsNano2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F69A2B2-234B-4AB0-BC0D-D2D73050E215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275EAA82-B930-4FFA-98C0-BD9608484345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29970" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{CF3DADBF-83E5-4D16-A608-914491EF0B5B}"/>
+    <workbookView xWindow="4815" yWindow="1755" windowWidth="21600" windowHeight="13065" xr2:uid="{CF3DADBF-83E5-4D16-A608-914491EF0B5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
   <si>
     <t>GPIO</t>
   </si>
@@ -139,6 +139,87 @@
   </si>
   <si>
     <t>sensactHsNano</t>
+  </si>
+  <si>
+    <t>ETH_CLK</t>
+  </si>
+  <si>
+    <t>PROG_TX</t>
+  </si>
+  <si>
+    <t>ETH_TX0</t>
+  </si>
+  <si>
+    <t>ETH_TXEN</t>
+  </si>
+  <si>
+    <t>ETH_TX1</t>
+  </si>
+  <si>
+    <t>ETH_RX0</t>
+  </si>
+  <si>
+    <t>ETH_RX1</t>
+  </si>
+  <si>
+    <t>ETH_CRS</t>
+  </si>
+  <si>
+    <t>ETH_AMP_DISPLAY_RESET</t>
+  </si>
+  <si>
+    <t>PROG_RX, dann ggf Display Backlight</t>
+  </si>
+  <si>
+    <t>BUTTON_ANALOG</t>
+  </si>
+  <si>
+    <t>CAN_RX</t>
+  </si>
+  <si>
+    <t>RS485_RX</t>
+  </si>
+  <si>
+    <t>ETH_MDIO</t>
+  </si>
+  <si>
+    <t>ETH_MDC</t>
+  </si>
+  <si>
+    <t>LCD_SCLK</t>
+  </si>
+  <si>
+    <t>LCD_MOSI</t>
+  </si>
+  <si>
+    <t>I2C_SDA</t>
+  </si>
+  <si>
+    <t>I2C_SCL</t>
+  </si>
+  <si>
+    <t>LCD_RS</t>
+  </si>
+  <si>
+    <t>CAN_TX</t>
+  </si>
+  <si>
+    <t>RS485_TX</t>
+  </si>
+  <si>
+    <t>I2S_DIN</t>
+  </si>
+  <si>
+    <t>I2S_BCLK</t>
+  </si>
+  <si>
+    <t>I2S_WS</t>
+  </si>
+  <si>
+    <t>RS485_DE</t>
+  </si>
+  <si>
+    <t>Thermal_Sensor</t>
   </si>
 </sst>
 </file>
@@ -209,10 +290,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B97A223B-4DF9-4A89-A483-D826DB974354}" name="Tabelle1" displayName="Tabelle1" ref="A1:G35" totalsRowShown="0">
-  <autoFilter ref="A1:G35" xr:uid="{85202B92-AC37-4566-9232-3C593AB1F1CF}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G35">
-    <sortCondition ref="A1:A35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B97A223B-4DF9-4A89-A483-D826DB974354}" name="Tabelle1" displayName="Tabelle1" ref="A1:G34" totalsRowShown="0">
+  <autoFilter ref="A1:G34" xr:uid="{85202B92-AC37-4566-9232-3C593AB1F1CF}">
+    <filterColumn colId="3">
+      <filters blank="1">
+        <filter val="Input Only"/>
+        <filter val="PD"/>
+        <filter val="PU"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G34">
+    <sortCondition ref="A1:A34"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{1264F92C-40AD-4A5B-8042-CF1E22B8EB18}" name="GPIO"/>
@@ -524,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B8E645-9EC7-46CA-9354-9DC45C4BC9D3}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G35"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,6 +664,9 @@
       <c r="F2" t="s">
         <v>31</v>
       </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -586,6 +678,9 @@
       <c r="C3" t="s">
         <v>26</v>
       </c>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -603,6 +698,9 @@
       <c r="F4" t="s">
         <v>32</v>
       </c>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -617,6 +715,9 @@
       <c r="F5" t="s">
         <v>29</v>
       </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -625,6 +726,9 @@
       <c r="B6">
         <v>26</v>
       </c>
+      <c r="G6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -639,8 +743,11 @@
       <c r="F7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -654,7 +761,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -668,7 +775,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -682,7 +789,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -696,7 +803,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -710,7 +817,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -743,6 +850,9 @@
       <c r="F14" t="s">
         <v>30</v>
       </c>
+      <c r="G14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -754,6 +864,9 @@
       <c r="C15" t="s">
         <v>17</v>
       </c>
+      <c r="G15" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -765,6 +878,9 @@
       <c r="C16" t="s">
         <v>16</v>
       </c>
+      <c r="G16" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -785,7 +901,9 @@
       <c r="F17" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -794,6 +912,9 @@
       <c r="B18">
         <v>27</v>
       </c>
+      <c r="G18" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -802,6 +923,9 @@
       <c r="B19">
         <v>28</v>
       </c>
+      <c r="G19" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -810,6 +934,9 @@
       <c r="B20">
         <v>30</v>
       </c>
+      <c r="G20" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -818,132 +945,169 @@
       <c r="B21">
         <v>31</v>
       </c>
+      <c r="G21" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>33</v>
+      </c>
+      <c r="G22" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="G23" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>36</v>
+        <v>23</v>
+      </c>
+      <c r="G24" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="G25" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="G27" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="G30" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>9</v>
-      </c>
-      <c r="C31" t="s">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D32" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
       </c>
       <c r="D33" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D34" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>39</v>
-      </c>
-      <c r="B35">
-        <v>5</v>
-      </c>
-      <c r="C35" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" t="s">
-        <v>13</v>
+      <c r="G34" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/pcb/sensactHsNano2/PinHints.xlsx
+++ b/pcb/sensactHsNano2/PinHints.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\sensact\pcb\sensactHsNano2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275EAA82-B930-4FFA-98C0-BD9608484345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC1E1BD-E3F4-4D9A-AE2D-1D2648E47BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4815" yWindow="1755" windowWidth="21600" windowHeight="13065" xr2:uid="{CF3DADBF-83E5-4D16-A608-914491EF0B5B}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CF3DADBF-83E5-4D16-A608-914491EF0B5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
   <si>
     <t>GPIO</t>
   </si>
@@ -114,9 +114,6 @@
     <t>TX</t>
   </si>
   <si>
-    <t>m</t>
-  </si>
-  <si>
     <t>ModulePin</t>
   </si>
   <si>
@@ -165,12 +162,6 @@
     <t>ETH_CRS</t>
   </si>
   <si>
-    <t>ETH_AMP_DISPLAY_RESET</t>
-  </si>
-  <si>
-    <t>PROG_RX, dann ggf Display Backlight</t>
-  </si>
-  <si>
     <t>BUTTON_ANALOG</t>
   </si>
   <si>
@@ -198,9 +189,6 @@
     <t>I2C_SCL</t>
   </si>
   <si>
-    <t>LCD_RS</t>
-  </si>
-  <si>
     <t>CAN_TX</t>
   </si>
   <si>
@@ -220,13 +208,19 @@
   </si>
   <si>
     <t>Thermal_Sensor</t>
+  </si>
+  <si>
+    <t>COMMON_RESET</t>
+  </si>
+  <si>
+    <t>PROG_RX und LCD_RS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,25 +228,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -264,16 +246,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Gut" xfId="1" builtinId="26"/>
+  <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -290,8 +269,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B97A223B-4DF9-4A89-A483-D826DB974354}" name="Tabelle1" displayName="Tabelle1" ref="A1:G34" totalsRowShown="0">
-  <autoFilter ref="A1:G34" xr:uid="{85202B92-AC37-4566-9232-3C593AB1F1CF}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B97A223B-4DF9-4A89-A483-D826DB974354}" name="Tabelle1" displayName="Tabelle1" ref="A1:G33" totalsRowShown="0">
+  <autoFilter ref="A1:G33" xr:uid="{85202B92-AC37-4566-9232-3C593AB1F1CF}">
     <filterColumn colId="3">
       <filters blank="1">
         <filter val="Input Only"/>
@@ -300,8 +279,8 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G34">
-    <sortCondition ref="A1:A34"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G33">
+    <sortCondition ref="A1:A33"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{1264F92C-40AD-4A5B-8042-CF1E22B8EB18}" name="GPIO"/>
@@ -613,15 +592,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B8E645-9EC7-46CA-9354-9DC45C4BC9D3}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
     <col min="5" max="5" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="75.42578125" bestFit="1" customWidth="1"/>
@@ -633,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -648,7 +627,7 @@
         <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -662,10 +641,10 @@
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -679,7 +658,7 @@
         <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -689,17 +668,14 @@
       <c r="B4">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -713,10 +689,10 @@
         <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -727,7 +703,7 @@
         <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -741,10 +717,10 @@
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -848,10 +824,10 @@
         <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -865,7 +841,7 @@
         <v>17</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -879,7 +855,7 @@
         <v>16</v>
       </c>
       <c r="G16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -899,10 +875,10 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>50</v>
+        <v>32</v>
+      </c>
+      <c r="G17" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -913,7 +889,7 @@
         <v>27</v>
       </c>
       <c r="G18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -924,7 +900,7 @@
         <v>28</v>
       </c>
       <c r="G19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -935,7 +911,7 @@
         <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -946,7 +922,7 @@
         <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -957,7 +933,7 @@
         <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -968,31 +944,37 @@
         <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
+      <c r="B24">
+        <v>37</v>
+      </c>
       <c r="G24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
       </c>
       <c r="G25" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G26" t="s">
         <v>41</v>
@@ -1000,10 +982,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G27" t="s">
         <v>42</v>
@@ -1011,103 +993,92 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
       </c>
       <c r="G28" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G29" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>9</v>
-      </c>
-      <c r="C30" t="s">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D31" t="s">
         <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
       </c>
       <c r="D32" t="s">
         <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D33" t="s">
         <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>39</v>
-      </c>
-      <c r="B34">
-        <v>5</v>
-      </c>
-      <c r="C34" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
